--- a/assignment_2/plots/Benchmarks.xlsx
+++ b/assignment_2/plots/Benchmarks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tony/Documents/University/4th Semester/Seminar/seminar_assignments/assignment_2/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF081D3-55BC-4A4B-BFE8-2C5CADA86873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398D9548-4B6D-674C-8901-14FD07A1E9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19100" yWindow="500" windowWidth="18940" windowHeight="26580" xr2:uid="{5771DCD5-F8DD-A44A-92A6-DCFD402B2810}"/>
+    <workbookView xWindow="34480" yWindow="500" windowWidth="34300" windowHeight="26580" activeTab="1" xr2:uid="{5771DCD5-F8DD-A44A-92A6-DCFD402B2810}"/>
   </bookViews>
   <sheets>
     <sheet name="Phoenix" sheetId="1" r:id="rId1"/>
@@ -725,7 +725,7 @@
               <a:rPr lang="en-GB" sz="1600" baseline="0">
                 <a:latin typeface="+mj-lt"/>
               </a:rPr>
-              <a:t> Cache-Misses (Small Dataset)</a:t>
+              <a:t> Cache-Misses (Large Dataset)</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB" sz="1600">
               <a:latin typeface="+mj-lt"/>
@@ -13899,7 +13899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C6F77C4-533C-A449-8C39-DB0FC58AEF38}">
   <dimension ref="A1:Y67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="92" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -15584,8 +15584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{751D347C-B34A-D94E-A8C2-EFF493D9A06D}">
   <dimension ref="A1:X43"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView tabSelected="1" topLeftCell="N2" zoomScale="125" workbookViewId="0">
+      <selection activeCell="Z33" sqref="Z33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/assignment_2/plots/Benchmarks.xlsx
+++ b/assignment_2/plots/Benchmarks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tony/Documents/University/4th Semester/Seminar/seminar_assignments/assignment_2/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF081D3-55BC-4A4B-BFE8-2C5CADA86873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF5FFEB-EC4C-CB4A-883A-EB44B9829233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19100" yWindow="500" windowWidth="18940" windowHeight="26580" xr2:uid="{5771DCD5-F8DD-A44A-92A6-DCFD402B2810}"/>
+    <workbookView xWindow="34480" yWindow="500" windowWidth="34300" windowHeight="26580" activeTab="1" xr2:uid="{5771DCD5-F8DD-A44A-92A6-DCFD402B2810}"/>
   </bookViews>
   <sheets>
     <sheet name="Phoenix" sheetId="1" r:id="rId1"/>
@@ -725,7 +725,7 @@
               <a:rPr lang="en-GB" sz="1600" baseline="0">
                 <a:latin typeface="+mj-lt"/>
               </a:rPr>
-              <a:t> Cache-Misses (Small Dataset)</a:t>
+              <a:t> Cache-Misses (Large Dataset)</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB" sz="1600">
               <a:latin typeface="+mj-lt"/>
@@ -13899,7 +13899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C6F77C4-533C-A449-8C39-DB0FC58AEF38}">
   <dimension ref="A1:Y67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="92" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -15584,8 +15584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{751D347C-B34A-D94E-A8C2-EFF493D9A06D}">
   <dimension ref="A1:X43"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="Z32" sqref="Z32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/assignment_2/plots/Benchmarks.xlsx
+++ b/assignment_2/plots/Benchmarks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tony/Documents/University/4th Semester/Seminar/seminar_assignments/assignment_2/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF5FFEB-EC4C-CB4A-883A-EB44B9829233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D60EFA-127C-DA43-B04C-5B79130D243E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34480" yWindow="500" windowWidth="34300" windowHeight="26580" activeTab="1" xr2:uid="{5771DCD5-F8DD-A44A-92A6-DCFD402B2810}"/>
+    <workbookView xWindow="34480" yWindow="500" windowWidth="34300" windowHeight="26580" xr2:uid="{5771DCD5-F8DD-A44A-92A6-DCFD402B2810}"/>
   </bookViews>
   <sheets>
     <sheet name="Phoenix" sheetId="1" r:id="rId1"/>
@@ -13899,8 +13899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C6F77C4-533C-A449-8C39-DB0FC58AEF38}">
   <dimension ref="A1:Y67"/>
   <sheetViews>
-    <sheetView zoomScale="92" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="92" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15584,7 +15584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{751D347C-B34A-D94E-A8C2-EFF493D9A06D}">
   <dimension ref="A1:X43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="O1" zoomScale="125" workbookViewId="0">
       <selection activeCell="Z32" sqref="Z32"/>
     </sheetView>
   </sheetViews>

--- a/assignment_2/plots/Benchmarks.xlsx
+++ b/assignment_2/plots/Benchmarks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tony/Documents/University/4th Semester/Seminar/seminar_assignments/assignment_2/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D60EFA-127C-DA43-B04C-5B79130D243E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE820B2-5724-D440-B219-3C2B67A1296F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34480" yWindow="500" windowWidth="34300" windowHeight="26580" xr2:uid="{5771DCD5-F8DD-A44A-92A6-DCFD402B2810}"/>
+    <workbookView xWindow="22600" yWindow="500" windowWidth="22440" windowHeight="26580" activeTab="1" xr2:uid="{5771DCD5-F8DD-A44A-92A6-DCFD402B2810}"/>
   </bookViews>
   <sheets>
     <sheet name="Phoenix" sheetId="1" r:id="rId1"/>
@@ -3940,7 +3940,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Speed-Up (Small Dataset)</a:t>
+              <a:t> Speedup (Small Dataset)</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -4395,7 +4395,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Speed-Up (Large Dataset)</a:t>
+              <a:t> Speedup (Large Dataset)</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -13899,7 +13899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C6F77C4-533C-A449-8C39-DB0FC58AEF38}">
   <dimension ref="A1:Y67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="92" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D2" zoomScale="92" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
@@ -15584,8 +15584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{751D347C-B34A-D94E-A8C2-EFF493D9A06D}">
   <dimension ref="A1:X43"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="Z32" sqref="Z32"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/assignment_2/plots/Benchmarks.xlsx
+++ b/assignment_2/plots/Benchmarks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tony/Documents/University/4th Semester/Seminar/seminar_assignments/assignment_2/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE820B2-5724-D440-B219-3C2B67A1296F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E89E74F-488E-BE49-B34E-0BC526D5A2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22600" yWindow="500" windowWidth="22440" windowHeight="26580" activeTab="1" xr2:uid="{5771DCD5-F8DD-A44A-92A6-DCFD402B2810}"/>
+    <workbookView xWindow="19560" yWindow="500" windowWidth="49220" windowHeight="26580" activeTab="1" xr2:uid="{5771DCD5-F8DD-A44A-92A6-DCFD402B2810}"/>
   </bookViews>
   <sheets>
     <sheet name="Phoenix" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="40">
   <si>
     <t>blackscholes</t>
   </si>
@@ -796,9 +796,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Parsec!$R$28:$X$28</c:f>
+              <c:f>Parsec!$R$28:$W$28</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Blackscholes</c:v>
                 </c:pt>
@@ -812,12 +812,9 @@
                   <c:v>Freqmine</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Raytrace</c:v>
+                  <c:v>Streamcluster</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Streamcluster</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Vips</c:v>
                 </c:pt>
               </c:strCache>
@@ -825,10 +822,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Parsec!$R$29:$X$29</c:f>
+              <c:f>Parsec!$R$29:$W$29</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.54627259643381709</c:v>
                 </c:pt>
@@ -841,10 +838,10 @@
                 <c:pt idx="3">
                   <c:v>1.2109113493047872</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96413594749674625</c:v>
+                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.96413594749674625</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>3.4641871876726911</c:v>
                 </c:pt>
               </c:numCache>
@@ -885,9 +882,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Parsec!$R$28:$X$28</c:f>
+              <c:f>Parsec!$R$28:$W$28</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Blackscholes</c:v>
                 </c:pt>
@@ -901,12 +898,9 @@
                   <c:v>Freqmine</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Raytrace</c:v>
+                  <c:v>Streamcluster</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Streamcluster</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Vips</c:v>
                 </c:pt>
               </c:strCache>
@@ -914,10 +908,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Parsec!$R$30:$X$30</c:f>
+              <c:f>Parsec!$R$30:$W$30</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.65487336886465963</c:v>
                 </c:pt>
@@ -930,10 +924,10 @@
                 <c:pt idx="3">
                   <c:v>1.5583254474073549</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92995866276623929</c:v>
+                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.92995866276623929</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>10.038065985291727</c:v>
                 </c:pt>
               </c:numCache>
@@ -974,9 +968,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Parsec!$R$28:$X$28</c:f>
+              <c:f>Parsec!$R$28:$W$28</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Blackscholes</c:v>
                 </c:pt>
@@ -990,12 +984,9 @@
                   <c:v>Freqmine</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Raytrace</c:v>
+                  <c:v>Streamcluster</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Streamcluster</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Vips</c:v>
                 </c:pt>
               </c:strCache>
@@ -1003,10 +994,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Parsec!$R$31:$X$31</c:f>
+              <c:f>Parsec!$R$31:$W$31</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1023,9 +1014,6 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -4010,9 +3998,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Parsec!$I$1:$O$1</c:f>
+              <c:f>Parsec!$I$1:$N$1</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Blackscholes</c:v>
                 </c:pt>
@@ -4026,12 +4014,9 @@
                   <c:v>Freqmine</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Raytrace</c:v>
+                  <c:v>Streamcluster</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Streamcluster</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Vips</c:v>
                 </c:pt>
               </c:strCache>
@@ -4039,10 +4024,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Parsec!$I$2:$O$2</c:f>
+              <c:f>Parsec!$I$2:$N$2</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1.5263157894736843</c:v>
                 </c:pt>
@@ -4055,10 +4040,10 @@
                 <c:pt idx="3">
                   <c:v>2.125</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4230769230769231</c:v>
+                </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4230769230769231</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -4098,9 +4083,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Parsec!$I$1:$O$1</c:f>
+              <c:f>Parsec!$I$1:$N$1</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Blackscholes</c:v>
                 </c:pt>
@@ -4114,12 +4099,9 @@
                   <c:v>Freqmine</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Raytrace</c:v>
+                  <c:v>Streamcluster</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Streamcluster</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Vips</c:v>
                 </c:pt>
               </c:strCache>
@@ -4127,10 +4109,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Parsec!$I$3:$O$3</c:f>
+              <c:f>Parsec!$I$3:$N$3</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1.6111111111111114</c:v>
                 </c:pt>
@@ -4143,10 +4125,10 @@
                 <c:pt idx="3">
                   <c:v>2.3925925925925924</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.94871794871794868</c:v>
+                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.94871794871794868</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>2.7521367521367521</c:v>
                 </c:pt>
               </c:numCache>
@@ -4465,9 +4447,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Parsec!$I$28:$O$28</c:f>
+              <c:f>Parsec!$I$28:$N$28</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Blackscholes</c:v>
                 </c:pt>
@@ -4481,12 +4463,9 @@
                   <c:v>Freqmine</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Raytrace</c:v>
+                  <c:v>Streamcluster</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Streamcluster</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Vips</c:v>
                 </c:pt>
               </c:strCache>
@@ -4494,10 +4473,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Parsec!$I$29:$O$29</c:f>
+              <c:f>Parsec!$I$29:$N$29</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2.2076502732240439</c:v>
                 </c:pt>
@@ -4510,10 +4489,10 @@
                 <c:pt idx="3">
                   <c:v>2.8517682468021071</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4260172626387178</c:v>
+                </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4260172626387178</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>3.1076923076923078</c:v>
                 </c:pt>
               </c:numCache>
@@ -4553,9 +4532,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Parsec!$I$28:$O$28</c:f>
+              <c:f>Parsec!$I$28:$N$28</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Blackscholes</c:v>
                 </c:pt>
@@ -4569,12 +4548,9 @@
                   <c:v>Freqmine</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Raytrace</c:v>
+                  <c:v>Streamcluster</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Streamcluster</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Vips</c:v>
                 </c:pt>
               </c:strCache>
@@ -4582,10 +4558,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Parsec!$I$30:$O$30</c:f>
+              <c:f>Parsec!$I$30:$N$30</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2.2696629213483148</c:v>
                 </c:pt>
@@ -4598,10 +4574,10 @@
                 <c:pt idx="3">
                   <c:v>2.99604743083004</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5474631751227497</c:v>
+                </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.5474631751227497</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>3.3753213367609254</c:v>
                 </c:pt>
               </c:numCache>
@@ -4924,9 +4900,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Parsec!$R$1:$X$1</c:f>
+              <c:f>Parsec!$R$1:$W$1</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Blackscholes</c:v>
                 </c:pt>
@@ -4940,12 +4916,9 @@
                   <c:v>Freqmine</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Raytrace</c:v>
+                  <c:v>Streamcluster</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Streamcluster</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Vips</c:v>
                 </c:pt>
               </c:strCache>
@@ -4953,10 +4926,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Parsec!$R$2:$X$2</c:f>
+              <c:f>Parsec!$R$2:$W$2</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1.2201555318171564</c:v>
                 </c:pt>
@@ -4969,10 +4942,10 @@
                 <c:pt idx="3">
                   <c:v>1.0787171887622391</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1434471375267083</c:v>
+                </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1434471375267083</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>2.0634254186203109</c:v>
                 </c:pt>
               </c:numCache>
@@ -5013,9 +4986,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Parsec!$R$1:$X$1</c:f>
+              <c:f>Parsec!$R$1:$W$1</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Blackscholes</c:v>
                 </c:pt>
@@ -5029,12 +5002,9 @@
                   <c:v>Freqmine</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Raytrace</c:v>
+                  <c:v>Streamcluster</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Streamcluster</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Vips</c:v>
                 </c:pt>
               </c:strCache>
@@ -5042,10 +5012,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Parsec!$R$3:$X$3</c:f>
+              <c:f>Parsec!$R$3:$W$3</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1.1769181215496645</c:v>
                 </c:pt>
@@ -5058,10 +5028,10 @@
                 <c:pt idx="3">
                   <c:v>1.2159243625750462</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69056053490185654</c:v>
+                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.69056053490185654</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>5.8057990622507472</c:v>
                 </c:pt>
               </c:numCache>
@@ -5102,9 +5072,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Parsec!$R$1:$X$1</c:f>
+              <c:f>Parsec!$R$1:$W$1</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Blackscholes</c:v>
                 </c:pt>
@@ -5118,12 +5088,9 @@
                   <c:v>Freqmine</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Raytrace</c:v>
+                  <c:v>Streamcluster</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Streamcluster</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Vips</c:v>
                 </c:pt>
               </c:strCache>
@@ -5131,10 +5098,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Parsec!$R$4:$X$4</c:f>
+              <c:f>Parsec!$R$4:$W$4</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -5151,9 +5118,6 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -15582,10 +15546,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{751D347C-B34A-D94E-A8C2-EFF493D9A06D}">
-  <dimension ref="A1:X43"/>
+  <dimension ref="A1:Y43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15600,7 +15564,7 @@
     <col min="23" max="23" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -15632,12 +15596,9 @@
         <v>34</v>
       </c>
       <c r="M1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" t="s">
         <v>37</v>
       </c>
       <c r="R1" t="s">
@@ -15653,16 +15614,16 @@
         <v>34</v>
       </c>
       <c r="V1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y1" t="s">
         <v>35</v>
       </c>
-      <c r="W1" t="s">
-        <v>36</v>
-      </c>
-      <c r="X1" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -15700,12 +15661,11 @@
         <f>E20/E21</f>
         <v>2.125</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3">
+      <c r="M2" s="3">
         <f>E32/E33</f>
         <v>1.4230769230769231</v>
       </c>
-      <c r="O2" s="3">
+      <c r="N2" s="3">
         <f>E38/E39</f>
         <v>2</v>
       </c>
@@ -15728,17 +15688,17 @@
         <f>F21/F20</f>
         <v>1.0787171887622391</v>
       </c>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3">
+      <c r="V2" s="3">
         <f>F33/F32</f>
         <v>1.1434471375267083</v>
       </c>
-      <c r="X2" s="3">
+      <c r="W2" s="3">
         <f>F39/F38</f>
         <v>2.0634254186203109</v>
       </c>
+      <c r="Y2" s="3"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -15776,12 +15736,11 @@
         <f>E20/E22</f>
         <v>2.3925925925925924</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3">
+      <c r="M3" s="3">
         <f>E32/E34</f>
         <v>0.94871794871794868</v>
       </c>
-      <c r="O3" s="3">
+      <c r="N3" s="3">
         <f>E38/E40</f>
         <v>2.7521367521367521</v>
       </c>
@@ -15804,17 +15763,17 @@
         <f>F22/F20</f>
         <v>1.2159243625750462</v>
       </c>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3">
+      <c r="V3" s="3">
         <f>F34/F32</f>
         <v>0.69056053490185654</v>
       </c>
-      <c r="X3" s="3">
+      <c r="W3" s="3">
         <f>F40/F38</f>
         <v>5.8057990622507472</v>
       </c>
+      <c r="Y3" s="3"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -15858,11 +15817,11 @@
       <c r="W4" s="3">
         <v>1</v>
       </c>
-      <c r="X4" s="3">
+      <c r="Y4" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -15882,7 +15841,7 @@
         <v>812241</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -15902,7 +15861,7 @@
         <v>443705</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -15922,7 +15881,7 @@
         <v>531915</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -15942,7 +15901,7 @@
         <v>33051339</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -15962,7 +15921,7 @@
         <v>26805268</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -15982,7 +15941,7 @@
         <v>27932440</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -16002,7 +15961,7 @@
         <v>260829865</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -16022,7 +15981,7 @@
         <v>217152732</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -16042,7 +16001,7 @@
         <v>223922406</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -16062,7 +16021,7 @@
         <v>3313547</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -16082,7 +16041,7 @@
         <v>4179297</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -16102,7 +16061,7 @@
         <v>4876825</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -16122,7 +16081,7 @@
         <v>46797194</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -16142,7 +16101,7 @@
         <v>53069377</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -16162,7 +16121,7 @@
         <v>56431430</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -16182,7 +16141,7 @@
         <v>1880339</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -16202,7 +16161,7 @@
         <v>2028354</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -16229,7 +16188,7 @@
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -16249,7 +16208,7 @@
         <v>22244270</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -16269,7 +16228,7 @@
         <v>26935839</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -16289,7 +16248,7 @@
         <v>34663812</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -16309,7 +16268,7 @@
         <v>20626091</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -16329,7 +16288,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -16361,12 +16320,9 @@
         <v>34</v>
       </c>
       <c r="M28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N28" t="s">
-        <v>36</v>
-      </c>
-      <c r="O28" t="s">
         <v>37</v>
       </c>
       <c r="R28" t="s">
@@ -16382,16 +16338,13 @@
         <v>34</v>
       </c>
       <c r="V28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W28" t="s">
-        <v>36</v>
-      </c>
-      <c r="X28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -16429,12 +16382,11 @@
         <f>E23/E24</f>
         <v>2.8517682468021071</v>
       </c>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3">
+      <c r="M29" s="3">
         <f>E35/E36</f>
         <v>3.4260172626387178</v>
       </c>
-      <c r="O29" s="3">
+      <c r="N29" s="3">
         <f>E41/E42</f>
         <v>3.1076923076923078</v>
       </c>
@@ -16457,17 +16409,16 @@
         <f>F24/F23</f>
         <v>1.2109113493047872</v>
       </c>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3">
+      <c r="V29" s="3">
         <f>F36/F35</f>
         <v>0.96413594749674625</v>
       </c>
-      <c r="X29" s="3">
+      <c r="W29" s="3">
         <f>F42/F41</f>
         <v>3.4641871876726911</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -16505,12 +16456,11 @@
         <f>E23/E25</f>
         <v>2.99604743083004</v>
       </c>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3">
+      <c r="M30" s="3">
         <f>E35/E37</f>
         <v>4.5474631751227497</v>
       </c>
-      <c r="O30" s="3">
+      <c r="N30" s="3">
         <f>E41/E43</f>
         <v>3.3753213367609254</v>
       </c>
@@ -16533,17 +16483,16 @@
         <f>F25/F23</f>
         <v>1.5583254474073549</v>
       </c>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3">
+      <c r="V30" s="3">
         <f>F37/F35</f>
         <v>0.92995866276623929</v>
       </c>
-      <c r="X30" s="3">
+      <c r="W30" s="3">
         <f>F43/F41</f>
         <v>10.038065985291727</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -16580,11 +16529,8 @@
       <c r="W31" s="3">
         <v>1</v>
       </c>
-      <c r="X31" s="3">
-        <v>1</v>
-      </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>15</v>
       </c>
